--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -679,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1219,308 +1219,1068 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" s="9" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr"/>
+      <c r="G20" s="9" t="inlineStr"/>
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" s="9" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" s="9" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" s="9" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" s="9" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" s="9" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr"/>
+      <c r="G25" s="9" t="inlineStr"/>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr"/>
+      <c r="G26" s="9" t="inlineStr"/>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr"/>
+      <c r="G27" s="9" t="inlineStr"/>
+      <c r="H27" s="9" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr"/>
+      <c r="G28" s="9" t="inlineStr"/>
+      <c r="H28" s="9" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="9" t="inlineStr">
+        <is>
+          <t>10134</t>
+        </is>
+      </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
+      <c r="H30" s="9" t="inlineStr">
+        <is>
+          <t>10134</t>
+        </is>
+      </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr"/>
+      <c r="G31" s="9" t="inlineStr"/>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="I32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10142</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10142</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B16"/>
@@ -1618,28 +2378,84 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" s="9" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>10132</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>10134</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10140</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10142</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10149</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -679,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1827,460 +1827,800 @@
       <c r="J32" s="9" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr"/>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="9" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" s="9" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr"/>
+      <c r="G34" s="9" t="inlineStr"/>
+      <c r="H34" s="9" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" s="9" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr"/>
+      <c r="G35" s="9" t="inlineStr"/>
+      <c r="H35" s="9" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" s="9" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr"/>
+      <c r="G36" s="9" t="inlineStr"/>
+      <c r="H36" s="9" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" s="9" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="9" t="inlineStr">
         <is>
           <t>10142</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" s="9" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr"/>
+      <c r="G38" s="9" t="inlineStr"/>
+      <c r="H38" s="9" t="inlineStr">
         <is>
           <t>10142</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" s="9" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr"/>
+      <c r="G39" s="9" t="inlineStr"/>
+      <c r="H39" s="9" t="inlineStr">
         <is>
           <t>10145</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" s="9" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr"/>
+      <c r="G40" s="9" t="inlineStr"/>
+      <c r="H40" s="9" t="inlineStr">
         <is>
           <t>10145</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" s="9" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr"/>
+      <c r="G41" s="9" t="inlineStr"/>
+      <c r="H41" s="9" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" s="9" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F42" s="9" t="inlineStr"/>
+      <c r="G42" s="9" t="inlineStr"/>
+      <c r="H42" s="9" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" s="9" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>259753</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr"/>
+      <c r="H43" s="9" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" s="9" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>259758</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr"/>
+      <c r="G44" s="9" t="inlineStr"/>
+      <c r="H44" s="9" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" s="9" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr"/>
+      <c r="G45" s="9" t="inlineStr"/>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr"/>
+      <c r="G46" s="9" t="inlineStr"/>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="I46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr"/>
+      <c r="G47" s="9" t="inlineStr"/>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr"/>
+      <c r="G48" s="9" t="inlineStr"/>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="I48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr"/>
+      <c r="G49" s="9" t="inlineStr"/>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr"/>
+      <c r="G50" s="9" t="inlineStr"/>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="I50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr"/>
+      <c r="G51" s="9" t="inlineStr"/>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr"/>
+      <c r="G52" s="9" t="inlineStr"/>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="I52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>10160</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2293,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B16"/>
@@ -2426,36 +2766,68 @@
       <c r="B22" s="9" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>10140</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" s="9" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>10142</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" s="9" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>10145</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" s="9" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>10149</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" s="9" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10160</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -679,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -2587,40 +2587,76 @@
       <c r="J52" s="9" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>asdasd</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>adada</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="9" t="n">
         <v>-1</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr"/>
+      <c r="G53" s="9" t="inlineStr"/>
+      <c r="H53" s="9" t="inlineStr">
         <is>
           <t>10160</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" s="9" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20220730</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>10161</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2633,7 +2669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B16"/>
@@ -2822,12 +2858,20 @@
       <c r="B29" s="9" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>10160</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" s="9" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10161</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -1219,308 +1219,308 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" s="9" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr"/>
+      <c r="G20" s="9" t="inlineStr"/>
+      <c r="H20" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" s="9" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>259750</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" s="9" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>259749</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" s="9" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>259752</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" s="9" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>259751</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>BE02</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>감마</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="9" t="inlineStr">
         <is>
           <t>20220730</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
+      <c r="H24" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,28 +1618,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>10124</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" s="9" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>10126</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" s="9" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -721,7 +721,12 @@
         <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -885,7 +890,12 @@
         <v>20220727</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -920,7 +930,12 @@
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1704,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -3991,7 +4006,18 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="16.5" customHeight="1" s="5"/>
+    <row r="189" ht="16.5" customHeight="1" s="5">
+      <c r="A189" s="10" t="inlineStr">
+        <is>
+          <t>1qqq</t>
+        </is>
+      </c>
+      <c r="B189" s="10" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+    </row>
     <row r="190" ht="16.5" customHeight="1" s="5"/>
     <row r="191" ht="16.5" customHeight="1" s="5"/>
     <row r="192" ht="16.5" customHeight="1" s="5"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박동환\PycharmProjects\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F274E2B-6521-4309-B2BE-16C545FEB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CBD3F-8087-41D0-9154-0B75AB33DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2970" windowWidth="21600" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1305" windowWidth="18135" windowHeight="13365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="218">
   <si>
     <t>eid</t>
   </si>
@@ -671,6 +671,14 @@
   </si>
   <si>
     <t>qw</t>
+  </si>
+  <si>
+    <t>BE01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -867,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1224,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1471,6 +1480,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>259753</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20220809</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20220810</v>
+      </c>
+      <c r="H10" s="5">
+        <v>10003</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
@@ -1481,10 +1513,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1503,6 +1535,11 @@
     <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>10002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>10003</v>
       </c>
     </row>
   </sheetData>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박동환\PycharmProjects\InventoryManagement\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CBD3F-8087-41D0-9154-0B75AB33DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F274E2B-6521-4309-B2BE-16C545FEB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1305" windowWidth="18135" windowHeight="13365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2970" windowWidth="21600" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
   <si>
     <t>eid</t>
   </si>
@@ -671,14 +671,6 @@
   </si>
   <si>
     <t>qw</t>
-  </si>
-  <si>
-    <t>BE01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>베타</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -875,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -921,7 +913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1233,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1480,29 +1471,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>259753</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20220809</v>
-      </c>
-      <c r="E10" s="5">
-        <v>20220810</v>
-      </c>
-      <c r="H10" s="5">
-        <v>10003</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
@@ -1513,10 +1481,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1535,11 +1503,6 @@
     <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>10002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5">
-        <v>10003</v>
       </c>
     </row>
   </sheetData>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passw\OneDrive\문서\GitHub\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F274E2B-6521-4309-B2BE-16C545FEB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896E79F7-5CF5-478F-8905-28ADCFA2F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2970" windowWidth="21600" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="223">
   <si>
     <t>eid</t>
   </si>
@@ -671,6 +671,34 @@
   </si>
   <si>
     <t>qw</t>
+  </si>
+  <si>
+    <t>알파</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>델타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1226,8 +1254,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1275,8 +1303,8 @@
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
+      <c r="B2" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>12</v>
@@ -1300,8 +1328,8 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
+      <c r="B3" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>12</v>
@@ -1325,11 +1353,11 @@
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
+      <c r="B4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
@@ -1350,18 +1378,16 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
+      <c r="B5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -1375,18 +1401,16 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="B6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
@@ -1400,11 +1424,11 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="B7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1425,11 +1449,11 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="B8" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1450,11 +1474,11 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="B9" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1483,7 +1507,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박동환\PycharmProjects\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F274E2B-6521-4309-B2BE-16C545FEB2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7F765-05B0-4A2F-9138-D3F46EF9242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2970" windowWidth="21600" windowHeight="10695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="1425" windowWidth="18135" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="216">
   <si>
     <t>eid</t>
   </si>
@@ -1224,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1471,6 +1471,1131 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
@@ -1481,10 +2606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1503,6 +2628,16 @@
     <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>10002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>10004</v>
       </c>
     </row>
   </sheetData>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passw\OneDrive\문서\GitHub\InventoryManagement\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박동환\PycharmProjects\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896E79F7-5CF5-478F-8905-28ADCFA2F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B599DF-373C-49E0-82E6-187B8AAA4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="1425" windowWidth="18135" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="225">
   <si>
     <t>eid</t>
   </si>
@@ -699,6 +699,12 @@
   <si>
     <t>DE02</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220810</t>
+  </si>
+  <si>
+    <t>20220811</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1261,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1387,7 +1393,9 @@
       <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -1410,7 +1418,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -970,7 +970,12 @@
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>불량엔진</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1005,7 +1010,12 @@
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>불량이에용</t>
+        </is>
       </c>
     </row>
     <row r="12">

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -1012,7 +1012,7 @@
       <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="0" t="inlineStr">
         <is>
           <t>불량이에용</t>
         </is>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\InventoryManagement\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F810EA-0831-4A7B-816C-B9A10CAB7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB3B9D-83AF-4168-A10A-99487D7C8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="3212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="3218">
   <si>
     <t>eid</t>
   </si>
@@ -9661,6 +9661,28 @@
   </si>
   <si>
     <t>A34G</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100499</t>
+  </si>
+  <si>
+    <t>A52T</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>누우</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100500</t>
+  </si>
+  <si>
+    <t>세타</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02W</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -10218,20 +10240,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J498"/>
+  <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A475" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I501" sqref="I501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="5.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -23241,6 +23263,57 @@
         <v>0</v>
       </c>
       <c r="J498" s="13"/>
+    </row>
+    <row r="499" spans="1:10">
+      <c r="A499" s="13" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B499" s="12" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C499" s="12" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D499" s="13">
+        <v>20220813</v>
+      </c>
+      <c r="E499" s="13">
+        <v>20220813</v>
+      </c>
+      <c r="F499" s="13"/>
+      <c r="G499" s="13"/>
+      <c r="H499" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="I499" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10">
+      <c r="A500" s="13" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B500" s="12" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D500" s="13">
+        <v>20220813</v>
+      </c>
+      <c r="E500" s="13">
+        <v>20220813</v>
+      </c>
+      <c r="F500" s="13"/>
+      <c r="G500" s="13"/>
+      <c r="H500" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="I500" s="13">
+        <v>0</v>
+      </c>
+      <c r="J500" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -23254,13 +23327,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2504"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
@@ -38307,11 +38380,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.5" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -38345,14 +38418,14 @@
   </sheetPr>
   <dimension ref="A1:G480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="8.69921875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="8" customWidth="1"/>
     <col min="6" max="7" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkhh\PycharmProjects\flaskProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박동환\PycharmProjects\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB3B9D-83AF-4168-A10A-99487D7C8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B054462-A357-412E-8686-3FF53B894FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1080" windowWidth="18135" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -10242,8 +10242,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J500"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I501" sqref="I501"/>
+    <sheetView tabSelected="1" topLeftCell="A479" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H491" sqref="H491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -22755,10 +22755,10 @@
         <v>292</v>
       </c>
       <c r="D479" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E479" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F479" s="13"/>
       <c r="G479" s="13"/>
@@ -22781,10 +22781,10 @@
         <v>292</v>
       </c>
       <c r="D480" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E480" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F480" s="13"/>
       <c r="G480" s="13"/>
@@ -22807,10 +22807,10 @@
         <v>292</v>
       </c>
       <c r="D481" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E481" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F481" s="13"/>
       <c r="G481" s="13"/>
@@ -22833,10 +22833,10 @@
         <v>292</v>
       </c>
       <c r="D482" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E482" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F482" s="13"/>
       <c r="G482" s="13"/>
@@ -22859,10 +22859,10 @@
         <v>292</v>
       </c>
       <c r="D483" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E483" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F483" s="13"/>
       <c r="G483" s="13"/>
@@ -22885,10 +22885,10 @@
         <v>292</v>
       </c>
       <c r="D484" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E484" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F484" s="13"/>
       <c r="G484" s="13"/>
@@ -22911,10 +22911,10 @@
         <v>292</v>
       </c>
       <c r="D485" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E485" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F485" s="13"/>
       <c r="G485" s="13"/>
@@ -22937,10 +22937,10 @@
         <v>292</v>
       </c>
       <c r="D486" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E486" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F486" s="13"/>
       <c r="G486" s="13"/>
@@ -22963,10 +22963,10 @@
         <v>292</v>
       </c>
       <c r="D487" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E487" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F487" s="13"/>
       <c r="G487" s="13"/>
@@ -22989,10 +22989,10 @@
         <v>292</v>
       </c>
       <c r="D488" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E488" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="F488" s="13"/>
       <c r="G488" s="13"/>
@@ -23015,12 +23015,14 @@
         <v>292</v>
       </c>
       <c r="D489" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E489" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F489" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F489" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G489" s="13"/>
       <c r="H489" s="13" t="s">
         <v>624</v>
@@ -23041,12 +23043,14 @@
         <v>292</v>
       </c>
       <c r="D490" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E490" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F490" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F490" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G490" s="13"/>
       <c r="H490" s="13" t="s">
         <v>624</v>
@@ -23067,12 +23071,14 @@
         <v>292</v>
       </c>
       <c r="D491" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E491" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F491" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F491" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G491" s="13"/>
       <c r="H491" s="13" t="s">
         <v>629</v>
@@ -23093,12 +23099,14 @@
         <v>292</v>
       </c>
       <c r="D492" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E492" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F492" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F492" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G492" s="13"/>
       <c r="H492" s="13" t="s">
         <v>629</v>
@@ -23119,12 +23127,14 @@
         <v>292</v>
       </c>
       <c r="D493" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E493" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F493" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F493" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G493" s="13"/>
       <c r="H493" s="13" t="s">
         <v>629</v>
@@ -23145,12 +23155,14 @@
         <v>292</v>
       </c>
       <c r="D494" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E494" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F494" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F494" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G494" s="13"/>
       <c r="H494" s="13" t="s">
         <v>629</v>
@@ -23171,12 +23183,14 @@
         <v>292</v>
       </c>
       <c r="D495" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E495" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F495" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F495" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G495" s="13"/>
       <c r="H495" s="13" t="s">
         <v>634</v>
@@ -23197,12 +23211,14 @@
         <v>292</v>
       </c>
       <c r="D496" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E496" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F496" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F496" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G496" s="13"/>
       <c r="H496" s="13" t="s">
         <v>634</v>
@@ -23223,12 +23239,14 @@
         <v>292</v>
       </c>
       <c r="D497" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E497" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F497" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F497" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G497" s="13"/>
       <c r="H497" s="13" t="s">
         <v>634</v>
@@ -23249,12 +23267,14 @@
         <v>292</v>
       </c>
       <c r="D498" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E498" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F498" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F498" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G498" s="13"/>
       <c r="H498" s="13" t="s">
         <v>634</v>
@@ -23275,12 +23295,14 @@
         <v>3214</v>
       </c>
       <c r="D499" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E499" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F499" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F499" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G499" s="13"/>
       <c r="H499" s="13" t="s">
         <v>639</v>
@@ -23300,12 +23322,14 @@
         <v>3216</v>
       </c>
       <c r="D500" s="13">
-        <v>20220813</v>
+        <v>20220817</v>
       </c>
       <c r="E500" s="13">
-        <v>20220813</v>
-      </c>
-      <c r="F500" s="13"/>
+        <v>20220817</v>
+      </c>
+      <c r="F500" s="13">
+        <v>20220817</v>
+      </c>
       <c r="G500" s="13"/>
       <c r="H500" s="13" t="s">
         <v>640</v>
@@ -23327,8 +23351,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2501"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\InventoryManagement\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F810EA-0831-4A7B-816C-B9A10CAB7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B81F98-4919-4A87-A01A-C7332604A0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" r:id="rId1"/>
@@ -10220,8 +10220,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J498"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -10986,7 +10986,9 @@
       <c r="E27" s="13">
         <v>20220126</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13">
+        <v>20220816</v>
+      </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13" t="s">
         <v>45</v>
@@ -38345,7 +38347,7 @@
   </sheetPr>
   <dimension ref="A1:G480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -2493,7 +2493,11 @@
       <c r="E52" s="13" t="n">
         <v>20220220</v>
       </c>
-      <c r="F52" s="13" t="n"/>
+      <c r="F52" s="13" t="inlineStr">
+        <is>
+          <t>20220823</t>
+        </is>
+      </c>
       <c r="G52" s="13" t="n"/>
       <c r="H52" s="13" t="inlineStr">
         <is>
@@ -2527,7 +2531,11 @@
       <c r="E53" s="13" t="n">
         <v>20220221</v>
       </c>
-      <c r="F53" s="13" t="n"/>
+      <c r="F53" s="13" t="inlineStr">
+        <is>
+          <t>20220823</t>
+        </is>
+      </c>
       <c r="G53" s="13" t="n"/>
       <c r="H53" s="13" t="inlineStr">
         <is>
@@ -2833,7 +2841,11 @@
       <c r="E62" s="13" t="n">
         <v>20220302</v>
       </c>
-      <c r="F62" s="13" t="n"/>
+      <c r="F62" s="13" t="inlineStr">
+        <is>
+          <t>20220824</t>
+        </is>
+      </c>
       <c r="G62" s="13" t="n"/>
       <c r="H62" s="13" t="inlineStr">
         <is>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-22605" yWindow="2670" windowWidth="15330" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" state="visible" r:id="rId1"/>
@@ -651,10 +651,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J514"/>
+  <dimension ref="A1:J498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.69921875" defaultRowHeight="17.4"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="J7" s="12" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>Test Data 001</t>
         </is>
       </c>
     </row>
@@ -967,9 +967,13 @@
         </is>
       </c>
       <c r="I8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="12" t="inlineStr">
+        <is>
+          <t>Test Data 002</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
@@ -1003,13 +1007,9 @@
         </is>
       </c>
       <c r="I9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
@@ -1041,9 +1041,13 @@
         </is>
       </c>
       <c r="I10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="13" t="inlineStr">
+        <is>
+          <t>Test Data 3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
@@ -1077,9 +1081,13 @@
         </is>
       </c>
       <c r="I11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>TEST TEST TEST</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
@@ -1469,9 +1477,13 @@
         </is>
       </c>
       <c r="I22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="inlineStr">
@@ -2489,11 +2501,7 @@
       <c r="E52" s="13" t="n">
         <v>20220220</v>
       </c>
-      <c r="F52" s="13" t="inlineStr">
-        <is>
-          <t>20220823</t>
-        </is>
-      </c>
+      <c r="F52" s="13" t="n"/>
       <c r="G52" s="13" t="n"/>
       <c r="H52" s="13" t="inlineStr">
         <is>
@@ -2527,11 +2535,7 @@
       <c r="E53" s="13" t="n">
         <v>20220221</v>
       </c>
-      <c r="F53" s="13" t="inlineStr">
-        <is>
-          <t>20220823</t>
-        </is>
-      </c>
+      <c r="F53" s="13" t="n"/>
       <c r="G53" s="13" t="n"/>
       <c r="H53" s="13" t="inlineStr">
         <is>
@@ -2837,11 +2841,7 @@
       <c r="E62" s="13" t="n">
         <v>20220302</v>
       </c>
-      <c r="F62" s="13" t="inlineStr">
-        <is>
-          <t>20220824</t>
-        </is>
-      </c>
+      <c r="F62" s="13" t="n"/>
       <c r="G62" s="13" t="n"/>
       <c r="H62" s="13" t="inlineStr">
         <is>
@@ -3529,9 +3529,13 @@
         </is>
       </c>
       <c r="I82" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="13" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J82" s="13" t="inlineStr">
+        <is>
+          <t>TEst3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="13" t="inlineStr">
@@ -17680,626 +17684,6 @@
         <v>0</v>
       </c>
       <c r="J498" s="13" t="n"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="13" t="inlineStr">
-        <is>
-          <t>259752</t>
-        </is>
-      </c>
-      <c r="B499" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C499" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D499" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E499" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F499" s="13" t="n"/>
-      <c r="G499" s="13" t="n"/>
-      <c r="H499" s="13" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
-      </c>
-      <c r="I499" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J499" s="13" t="n"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="13" t="inlineStr">
-        <is>
-          <t>259751</t>
-        </is>
-      </c>
-      <c r="B500" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C500" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D500" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E500" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F500" s="13" t="n"/>
-      <c r="G500" s="13" t="n"/>
-      <c r="H500" s="13" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
-      </c>
-      <c r="I500" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J500" s="13" t="n"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="13" t="inlineStr">
-        <is>
-          <t>259750</t>
-        </is>
-      </c>
-      <c r="B501" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C501" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D501" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E501" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F501" s="13" t="n"/>
-      <c r="G501" s="13" t="n"/>
-      <c r="H501" s="13" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
-      </c>
-      <c r="I501" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J501" s="13" t="n"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="13" t="inlineStr">
-        <is>
-          <t>259749</t>
-        </is>
-      </c>
-      <c r="B502" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C502" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D502" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E502" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F502" s="13" t="n"/>
-      <c r="G502" s="13" t="n"/>
-      <c r="H502" s="13" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
-      </c>
-      <c r="I502" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J502" s="13" t="n"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="13" t="inlineStr">
-        <is>
-          <t>259752</t>
-        </is>
-      </c>
-      <c r="B503" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C503" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D503" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E503" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F503" s="13" t="n"/>
-      <c r="G503" s="13" t="n"/>
-      <c r="H503" s="13" t="inlineStr">
-        <is>
-          <t>10015</t>
-        </is>
-      </c>
-      <c r="I503" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J503" s="13" t="n"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="13" t="inlineStr">
-        <is>
-          <t>259751</t>
-        </is>
-      </c>
-      <c r="B504" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C504" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D504" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E504" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F504" s="13" t="n"/>
-      <c r="G504" s="13" t="n"/>
-      <c r="H504" s="13" t="inlineStr">
-        <is>
-          <t>10015</t>
-        </is>
-      </c>
-      <c r="I504" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J504" s="13" t="n"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="13" t="inlineStr">
-        <is>
-          <t>259750</t>
-        </is>
-      </c>
-      <c r="B505" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C505" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D505" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E505" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F505" s="13" t="n"/>
-      <c r="G505" s="13" t="n"/>
-      <c r="H505" s="13" t="inlineStr">
-        <is>
-          <t>10015</t>
-        </is>
-      </c>
-      <c r="I505" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J505" s="13" t="n"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="13" t="inlineStr">
-        <is>
-          <t>259749</t>
-        </is>
-      </c>
-      <c r="B506" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C506" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D506" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E506" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F506" s="13" t="n"/>
-      <c r="G506" s="13" t="n"/>
-      <c r="H506" s="13" t="inlineStr">
-        <is>
-          <t>10015</t>
-        </is>
-      </c>
-      <c r="I506" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J506" s="13" t="n"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="13" t="inlineStr">
-        <is>
-          <t>259752</t>
-        </is>
-      </c>
-      <c r="B507" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C507" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D507" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E507" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F507" s="13" t="n"/>
-      <c r="G507" s="13" t="n"/>
-      <c r="H507" s="13" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
-      </c>
-      <c r="I507" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J507" s="13" t="n"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="13" t="inlineStr">
-        <is>
-          <t>259751</t>
-        </is>
-      </c>
-      <c r="B508" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C508" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D508" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E508" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F508" s="13" t="n"/>
-      <c r="G508" s="13" t="n"/>
-      <c r="H508" s="13" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
-      </c>
-      <c r="I508" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J508" s="13" t="n"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="13" t="inlineStr">
-        <is>
-          <t>259750</t>
-        </is>
-      </c>
-      <c r="B509" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C509" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D509" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E509" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F509" s="13" t="n"/>
-      <c r="G509" s="13" t="n"/>
-      <c r="H509" s="13" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
-      </c>
-      <c r="I509" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J509" s="13" t="n"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="13" t="inlineStr">
-        <is>
-          <t>259749</t>
-        </is>
-      </c>
-      <c r="B510" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C510" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D510" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E510" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F510" s="13" t="n"/>
-      <c r="G510" s="13" t="n"/>
-      <c r="H510" s="13" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
-      </c>
-      <c r="I510" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J510" s="13" t="n"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="13" t="inlineStr">
-        <is>
-          <t>259712</t>
-        </is>
-      </c>
-      <c r="B511" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C511" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D511" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E511" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F511" s="13" t="n"/>
-      <c r="G511" s="13" t="n"/>
-      <c r="H511" s="13" t="inlineStr">
-        <is>
-          <t>10020</t>
-        </is>
-      </c>
-      <c r="I511" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J511" s="13" t="n"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="13" t="inlineStr">
-        <is>
-          <t>259711</t>
-        </is>
-      </c>
-      <c r="B512" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C512" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D512" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E512" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F512" s="13" t="inlineStr">
-        <is>
-          <t>20220823</t>
-        </is>
-      </c>
-      <c r="G512" s="13" t="n"/>
-      <c r="H512" s="13" t="inlineStr">
-        <is>
-          <t>10020</t>
-        </is>
-      </c>
-      <c r="I512" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J512" s="13" t="n"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="13" t="inlineStr">
-        <is>
-          <t>259710</t>
-        </is>
-      </c>
-      <c r="B513" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C513" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D513" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E513" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F513" s="13" t="inlineStr">
-        <is>
-          <t>20220823</t>
-        </is>
-      </c>
-      <c r="G513" s="13" t="n"/>
-      <c r="H513" s="13" t="inlineStr">
-        <is>
-          <t>10020</t>
-        </is>
-      </c>
-      <c r="I513" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J513" s="13" t="n"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="13" t="inlineStr">
-        <is>
-          <t>259719</t>
-        </is>
-      </c>
-      <c r="B514" s="13" t="inlineStr">
-        <is>
-          <t>BE02</t>
-        </is>
-      </c>
-      <c r="C514" s="13" t="inlineStr">
-        <is>
-          <t>감마</t>
-        </is>
-      </c>
-      <c r="D514" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="E514" s="13" t="inlineStr">
-        <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="F514" s="13" t="inlineStr">
-        <is>
-          <t>20220823</t>
-        </is>
-      </c>
-      <c r="G514" s="13" t="n"/>
-      <c r="H514" s="13" t="inlineStr">
-        <is>
-          <t>10020</t>
-        </is>
-      </c>
-      <c r="I514" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J514" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
@@ -18313,7 +17697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2508"/>
+  <dimension ref="A1:B2504"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2501"/>
@@ -38359,38 +37743,6 @@
         </is>
       </c>
       <c r="B2504" s="13" t="n"/>
-    </row>
-    <row r="2505">
-      <c r="A2505" s="13" t="inlineStr">
-        <is>
-          <t>10011</t>
-        </is>
-      </c>
-      <c r="B2505" s="13" t="n"/>
-    </row>
-    <row r="2506">
-      <c r="A2506" s="13" t="inlineStr">
-        <is>
-          <t>10015</t>
-        </is>
-      </c>
-      <c r="B2506" s="13" t="n"/>
-    </row>
-    <row r="2507">
-      <c r="A2507" s="13" t="inlineStr">
-        <is>
-          <t>10019</t>
-        </is>
-      </c>
-      <c r="B2507" s="13" t="n"/>
-    </row>
-    <row r="2508">
-      <c r="A2508" s="13" t="inlineStr">
-        <is>
-          <t>10020</t>
-        </is>
-      </c>
-      <c r="B2508" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
@@ -38421,12 +37773,12 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>20220822</t>
+          <t>20220812</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>181716</t>
+          <t>015341</t>
         </is>
       </c>
       <c r="C1" s="11" t="inlineStr">
@@ -38454,9 +37806,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
@@ -40765,18 +40117,7 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="16.5" customHeight="1" s="5">
-      <c r="A191" s="7" t="inlineStr">
-        <is>
-          <t>AABB</t>
-        </is>
-      </c>
-      <c r="B191" s="7" t="inlineStr">
-        <is>
-          <t>테스틑</t>
-        </is>
-      </c>
-    </row>
+    <row r="191" ht="16.5" customHeight="1" s="5"/>
     <row r="192" ht="16.5" customHeight="1" s="5"/>
     <row r="193" ht="16.5" customHeight="1" s="5"/>
     <row r="194" ht="16.5" customHeight="1" s="5"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-22605" yWindow="2670" windowWidth="15330" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="engineDB" sheetId="1" state="visible" r:id="rId1"/>
@@ -653,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:J514"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.69921875" defaultRowHeight="17.4"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="J7" s="12" t="inlineStr">
         <is>
-          <t>Test Data 001</t>
+          <t>test1</t>
         </is>
       </c>
     </row>
@@ -967,13 +967,9 @@
         </is>
       </c>
       <c r="I8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="inlineStr">
-        <is>
-          <t>Test Data 002</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
@@ -1007,9 +1003,13 @@
         </is>
       </c>
       <c r="I9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
@@ -1041,13 +1041,9 @@
         </is>
       </c>
       <c r="I10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="inlineStr">
-        <is>
-          <t>Test Data 3</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
@@ -17711,8 +17707,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F499" s="13" t="inlineStr"/>
-      <c r="G499" s="13" t="inlineStr"/>
+      <c r="F499" s="13" t="n"/>
+      <c r="G499" s="13" t="n"/>
       <c r="H499" s="13" t="inlineStr">
         <is>
           <t>10011</t>
@@ -17721,7 +17717,7 @@
       <c r="I499" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J499" s="13" t="inlineStr"/>
+      <c r="J499" s="13" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="13" t="inlineStr">
@@ -17749,8 +17745,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F500" s="13" t="inlineStr"/>
-      <c r="G500" s="13" t="inlineStr"/>
+      <c r="F500" s="13" t="n"/>
+      <c r="G500" s="13" t="n"/>
       <c r="H500" s="13" t="inlineStr">
         <is>
           <t>10011</t>
@@ -17759,7 +17755,7 @@
       <c r="I500" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J500" s="13" t="inlineStr"/>
+      <c r="J500" s="13" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="13" t="inlineStr">
@@ -17787,8 +17783,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F501" s="13" t="inlineStr"/>
-      <c r="G501" s="13" t="inlineStr"/>
+      <c r="F501" s="13" t="n"/>
+      <c r="G501" s="13" t="n"/>
       <c r="H501" s="13" t="inlineStr">
         <is>
           <t>10011</t>
@@ -17797,7 +17793,7 @@
       <c r="I501" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J501" s="13" t="inlineStr"/>
+      <c r="J501" s="13" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="13" t="inlineStr">
@@ -17825,8 +17821,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F502" s="13" t="inlineStr"/>
-      <c r="G502" s="13" t="inlineStr"/>
+      <c r="F502" s="13" t="n"/>
+      <c r="G502" s="13" t="n"/>
       <c r="H502" s="13" t="inlineStr">
         <is>
           <t>10011</t>
@@ -17835,7 +17831,7 @@
       <c r="I502" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J502" s="13" t="inlineStr"/>
+      <c r="J502" s="13" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="13" t="inlineStr">
@@ -17863,8 +17859,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F503" s="13" t="inlineStr"/>
-      <c r="G503" s="13" t="inlineStr"/>
+      <c r="F503" s="13" t="n"/>
+      <c r="G503" s="13" t="n"/>
       <c r="H503" s="13" t="inlineStr">
         <is>
           <t>10015</t>
@@ -17873,7 +17869,7 @@
       <c r="I503" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J503" s="13" t="inlineStr"/>
+      <c r="J503" s="13" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="13" t="inlineStr">
@@ -17901,8 +17897,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F504" s="13" t="inlineStr"/>
-      <c r="G504" s="13" t="inlineStr"/>
+      <c r="F504" s="13" t="n"/>
+      <c r="G504" s="13" t="n"/>
       <c r="H504" s="13" t="inlineStr">
         <is>
           <t>10015</t>
@@ -17911,7 +17907,7 @@
       <c r="I504" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J504" s="13" t="inlineStr"/>
+      <c r="J504" s="13" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="13" t="inlineStr">
@@ -17939,8 +17935,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F505" s="13" t="inlineStr"/>
-      <c r="G505" s="13" t="inlineStr"/>
+      <c r="F505" s="13" t="n"/>
+      <c r="G505" s="13" t="n"/>
       <c r="H505" s="13" t="inlineStr">
         <is>
           <t>10015</t>
@@ -17949,7 +17945,7 @@
       <c r="I505" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J505" s="13" t="inlineStr"/>
+      <c r="J505" s="13" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="13" t="inlineStr">
@@ -17977,8 +17973,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F506" s="13" t="inlineStr"/>
-      <c r="G506" s="13" t="inlineStr"/>
+      <c r="F506" s="13" t="n"/>
+      <c r="G506" s="13" t="n"/>
       <c r="H506" s="13" t="inlineStr">
         <is>
           <t>10015</t>
@@ -17987,7 +17983,7 @@
       <c r="I506" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J506" s="13" t="inlineStr"/>
+      <c r="J506" s="13" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="13" t="inlineStr">
@@ -18015,8 +18011,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F507" s="13" t="inlineStr"/>
-      <c r="G507" s="13" t="inlineStr"/>
+      <c r="F507" s="13" t="n"/>
+      <c r="G507" s="13" t="n"/>
       <c r="H507" s="13" t="inlineStr">
         <is>
           <t>10019</t>
@@ -18025,7 +18021,7 @@
       <c r="I507" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J507" s="13" t="inlineStr"/>
+      <c r="J507" s="13" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="13" t="inlineStr">
@@ -18053,8 +18049,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F508" s="13" t="inlineStr"/>
-      <c r="G508" s="13" t="inlineStr"/>
+      <c r="F508" s="13" t="n"/>
+      <c r="G508" s="13" t="n"/>
       <c r="H508" s="13" t="inlineStr">
         <is>
           <t>10019</t>
@@ -18063,7 +18059,7 @@
       <c r="I508" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J508" s="13" t="inlineStr"/>
+      <c r="J508" s="13" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="13" t="inlineStr">
@@ -18091,8 +18087,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F509" s="13" t="inlineStr"/>
-      <c r="G509" s="13" t="inlineStr"/>
+      <c r="F509" s="13" t="n"/>
+      <c r="G509" s="13" t="n"/>
       <c r="H509" s="13" t="inlineStr">
         <is>
           <t>10019</t>
@@ -18101,7 +18097,7 @@
       <c r="I509" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J509" s="13" t="inlineStr"/>
+      <c r="J509" s="13" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="13" t="inlineStr">
@@ -18129,8 +18125,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F510" s="13" t="inlineStr"/>
-      <c r="G510" s="13" t="inlineStr"/>
+      <c r="F510" s="13" t="n"/>
+      <c r="G510" s="13" t="n"/>
       <c r="H510" s="13" t="inlineStr">
         <is>
           <t>10019</t>
@@ -18139,7 +18135,7 @@
       <c r="I510" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J510" s="13" t="inlineStr"/>
+      <c r="J510" s="13" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="13" t="inlineStr">
@@ -18167,8 +18163,8 @@
           <t>20220822</t>
         </is>
       </c>
-      <c r="F511" s="13" t="inlineStr"/>
-      <c r="G511" s="13" t="inlineStr"/>
+      <c r="F511" s="13" t="n"/>
+      <c r="G511" s="13" t="n"/>
       <c r="H511" s="13" t="inlineStr">
         <is>
           <t>10020</t>
@@ -18177,7 +18173,7 @@
       <c r="I511" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J511" s="13" t="inlineStr"/>
+      <c r="J511" s="13" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="13" t="inlineStr">
@@ -18210,7 +18206,7 @@
           <t>20220823</t>
         </is>
       </c>
-      <c r="G512" s="13" t="inlineStr"/>
+      <c r="G512" s="13" t="n"/>
       <c r="H512" s="13" t="inlineStr">
         <is>
           <t>10020</t>
@@ -18219,7 +18215,7 @@
       <c r="I512" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J512" s="13" t="inlineStr"/>
+      <c r="J512" s="13" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="13" t="inlineStr">
@@ -18252,7 +18248,7 @@
           <t>20220823</t>
         </is>
       </c>
-      <c r="G513" s="13" t="inlineStr"/>
+      <c r="G513" s="13" t="n"/>
       <c r="H513" s="13" t="inlineStr">
         <is>
           <t>10020</t>
@@ -18261,7 +18257,7 @@
       <c r="I513" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J513" s="13" t="inlineStr"/>
+      <c r="J513" s="13" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="13" t="inlineStr">
@@ -18294,7 +18290,7 @@
           <t>20220823</t>
         </is>
       </c>
-      <c r="G514" s="13" t="inlineStr"/>
+      <c r="G514" s="13" t="n"/>
       <c r="H514" s="13" t="inlineStr">
         <is>
           <t>10020</t>
@@ -18303,7 +18299,7 @@
       <c r="I514" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J514" s="13" t="inlineStr"/>
+      <c r="J514" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
@@ -38370,7 +38366,7 @@
           <t>10011</t>
         </is>
       </c>
-      <c r="B2505" s="13" t="inlineStr"/>
+      <c r="B2505" s="13" t="n"/>
     </row>
     <row r="2506">
       <c r="A2506" s="13" t="inlineStr">
@@ -38378,7 +38374,7 @@
           <t>10015</t>
         </is>
       </c>
-      <c r="B2506" s="13" t="inlineStr"/>
+      <c r="B2506" s="13" t="n"/>
     </row>
     <row r="2507">
       <c r="A2507" s="13" t="inlineStr">
@@ -38386,7 +38382,7 @@
           <t>10019</t>
         </is>
       </c>
-      <c r="B2507" s="13" t="inlineStr"/>
+      <c r="B2507" s="13" t="n"/>
     </row>
     <row r="2508">
       <c r="A2508" s="13" t="inlineStr">
@@ -38394,7 +38390,7 @@
           <t>10020</t>
         </is>
       </c>
-      <c r="B2508" s="13" t="inlineStr"/>
+      <c r="B2508" s="13" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
@@ -38458,9 +38454,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
@@ -40769,7 +40765,18 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="16.5" customHeight="1" s="5"/>
+    <row r="191" ht="16.5" customHeight="1" s="5">
+      <c r="A191" s="7" t="inlineStr">
+        <is>
+          <t>AABB</t>
+        </is>
+      </c>
+      <c r="B191" s="7" t="inlineStr">
+        <is>
+          <t>테스틑</t>
+        </is>
+      </c>
+    </row>
     <row r="192" ht="16.5" customHeight="1" s="5"/>
     <row r="193" ht="16.5" customHeight="1" s="5"/>
     <row r="194" ht="16.5" customHeight="1" s="5"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -38454,7 +38454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A166" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C189" sqref="C189"/>
@@ -40777,7 +40777,18 @@
         </is>
       </c>
     </row>
-    <row r="192" ht="16.5" customHeight="1" s="5"/>
+    <row r="192" ht="16.5" customHeight="1" s="5">
+      <c r="A192" s="7" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B192" s="7" t="inlineStr">
+        <is>
+          <t>테에스트</t>
+        </is>
+      </c>
+    </row>
     <row r="193" ht="16.5" customHeight="1" s="5"/>
     <row r="194" ht="16.5" customHeight="1" s="5"/>
     <row r="195" ht="16.5" customHeight="1" s="5"/>

--- a/DB/engine.xlsx
+++ b/DB/engine.xlsx
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J514"/>
+  <dimension ref="A1:J676"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -18301,6 +18301,6162 @@
       </c>
       <c r="J514" s="13" t="n"/>
     </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>10027</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>10027</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>10027</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>10027</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>0</v>
+      </c>
+      <c r="J518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="I520" t="n">
+        <v>0</v>
+      </c>
+      <c r="J520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="I521" t="n">
+        <v>0</v>
+      </c>
+      <c r="J521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>10038</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>10038</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>10046</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>10046</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>10046</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>10047</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>10047</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
+      <c r="J543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>0</v>
+      </c>
+      <c r="J544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
+      <c r="J546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="I547" t="n">
+        <v>0</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="I548" t="n">
+        <v>0</v>
+      </c>
+      <c r="J548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="I549" t="n">
+        <v>0</v>
+      </c>
+      <c r="J549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
+      <c r="J550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>0</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
+      <c r="J552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>0</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>0</v>
+      </c>
+      <c r="J554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>0</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>0</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>0</v>
+      </c>
+      <c r="J557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+      <c r="J561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
+      <c r="J562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
+      <c r="J563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>0</v>
+      </c>
+      <c r="J564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>0</v>
+      </c>
+      <c r="J565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>0</v>
+      </c>
+      <c r="J566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>0</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
+      <c r="J570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
+      <c r="J572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+      <c r="I573" t="n">
+        <v>0</v>
+      </c>
+      <c r="J573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr"/>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+      <c r="J575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+      <c r="I576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="I578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>0</v>
+      </c>
+      <c r="J579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr"/>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>0</v>
+      </c>
+      <c r="J580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>10091</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>10091</t>
+        </is>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>10091</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr"/>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr"/>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr"/>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>0</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>0</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
+      <c r="J602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="I605" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="I606" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>0</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr"/>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>0</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>10119</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>10119</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>10135</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>10135</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>10135</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>10135</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>0</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>0</v>
+      </c>
+      <c r="J636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>0</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>10146</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>10146</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="I650" t="n">
+        <v>0</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>10164</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>10164</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>0</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>0</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>0</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>0</v>
+      </c>
+      <c r="J666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>0</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>259752</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>0</v>
+      </c>
+      <c r="J668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>259751</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>0</v>
+      </c>
+      <c r="J669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>259750</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>0</v>
+      </c>
+      <c r="J670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>259749</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="I671" t="n">
+        <v>0</v>
+      </c>
+      <c r="J671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>259753</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>0</v>
+      </c>
+      <c r="J672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>259754</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>0</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>259755</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>259757</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>259758</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>BE02</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>감마</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>20220829</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
@@ -18313,7 +24469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2508"/>
+  <dimension ref="A1:B2561"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2501"/>
@@ -38391,6 +44547,430 @@
         </is>
       </c>
       <c r="B2508" s="13" t="n"/>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>10027</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr"/>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr"/>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr"/>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>10036</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr"/>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>10037</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr"/>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>10038</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr"/>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>10045</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr"/>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>10046</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr"/>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>10047</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr"/>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr"/>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr"/>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr"/>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>10063</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr"/>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr"/>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr"/>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>10072</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr"/>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>10073</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr"/>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>10074</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr"/>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>10081</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr"/>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>10082</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr"/>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>10083</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr"/>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>10090</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr"/>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>10091</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr"/>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr"/>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr"/>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr"/>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr"/>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>10108</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr"/>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr"/>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr"/>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr"/>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>10118</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr"/>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>10119</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr"/>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>10126</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr"/>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>10127</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr"/>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>10128</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr"/>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>10135</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr"/>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>10136</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr"/>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>10137</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr"/>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>10144</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr"/>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>10145</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr"/>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>10146</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr"/>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr"/>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>10154</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr"/>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr"/>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr"/>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr"/>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>10164</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr"/>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr"/>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr"/>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr"/>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>10181</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr"/>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.6998611092567444" right="0.6998611092567444" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
@@ -38421,12 +45001,12 @@
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>20220822</t>
+          <t>20220924</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>181716</t>
+          <t>122831</t>
         </is>
       </c>
       <c r="C1" s="11" t="inlineStr">
